--- a/Data_frame/balancos_definitivos/BMTO4.xlsx
+++ b/Data_frame/balancos_definitivos/BMTO4.xlsx
@@ -13041,75 +13041,29 @@
       <c r="AW57" t="n">
         <v>0</v>
       </c>
-      <c r="AX57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT57" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX57" t="inlineStr"/>
+      <c r="AY57" t="inlineStr"/>
+      <c r="AZ57" t="inlineStr"/>
+      <c r="BA57" t="inlineStr"/>
+      <c r="BB57" t="inlineStr"/>
+      <c r="BC57" t="inlineStr"/>
+      <c r="BD57" t="inlineStr"/>
+      <c r="BE57" t="inlineStr"/>
+      <c r="BF57" t="inlineStr"/>
+      <c r="BG57" t="inlineStr"/>
+      <c r="BH57" t="inlineStr"/>
+      <c r="BI57" t="inlineStr"/>
+      <c r="BJ57" t="inlineStr"/>
+      <c r="BK57" t="inlineStr"/>
+      <c r="BL57" t="inlineStr"/>
+      <c r="BM57" t="inlineStr"/>
+      <c r="BN57" t="inlineStr"/>
+      <c r="BO57" t="inlineStr"/>
+      <c r="BP57" t="inlineStr"/>
+      <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
+      <c r="BS57" t="inlineStr"/>
+      <c r="BT57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13257,75 +13211,29 @@
       <c r="AW58" t="n">
         <v>0</v>
       </c>
-      <c r="AX58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT58" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX58" t="inlineStr"/>
+      <c r="AY58" t="inlineStr"/>
+      <c r="AZ58" t="inlineStr"/>
+      <c r="BA58" t="inlineStr"/>
+      <c r="BB58" t="inlineStr"/>
+      <c r="BC58" t="inlineStr"/>
+      <c r="BD58" t="inlineStr"/>
+      <c r="BE58" t="inlineStr"/>
+      <c r="BF58" t="inlineStr"/>
+      <c r="BG58" t="inlineStr"/>
+      <c r="BH58" t="inlineStr"/>
+      <c r="BI58" t="inlineStr"/>
+      <c r="BJ58" t="inlineStr"/>
+      <c r="BK58" t="inlineStr"/>
+      <c r="BL58" t="inlineStr"/>
+      <c r="BM58" t="inlineStr"/>
+      <c r="BN58" t="inlineStr"/>
+      <c r="BO58" t="inlineStr"/>
+      <c r="BP58" t="inlineStr"/>
+      <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
+      <c r="BS58" t="inlineStr"/>
+      <c r="BT58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14305,7 +14213,7 @@
         <v>-160</v>
       </c>
       <c r="AM63" t="n">
-        <v>415</v>
+        <v>-205</v>
       </c>
       <c r="AN63" t="n">
         <v>-228</v>
@@ -14338,7 +14246,7 @@
         <v>-131</v>
       </c>
       <c r="AX63" t="n">
-        <v>956</v>
+        <v>571</v>
       </c>
       <c r="AY63" t="n">
         <v>-390</v>
@@ -14347,7 +14255,7 @@
         <v>-192</v>
       </c>
       <c r="BA63" t="n">
-        <v>-107</v>
+        <v>-21</v>
       </c>
       <c r="BB63" t="n">
         <v>-377</v>
@@ -14442,66 +14350,26 @@
       <c r="AB64" t="inlineStr"/>
       <c r="AC64" t="inlineStr"/>
       <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX64" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AS64" t="inlineStr"/>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AU64" t="inlineStr"/>
+      <c r="AV64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr"/>
+      <c r="AX64" t="inlineStr"/>
       <c r="AY64" t="n">
         <v>0</v>
       </c>
@@ -14683,7 +14551,7 @@
         <v>0</v>
       </c>
       <c r="AM65" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AN65" t="n">
         <v>0</v>
@@ -14899,7 +14767,7 @@
         <v>-10</v>
       </c>
       <c r="AM66" t="n">
-        <v>-684</v>
+        <v>-3284</v>
       </c>
       <c r="AN66" t="n">
         <v>0</v>
@@ -14932,7 +14800,7 @@
         <v>-57</v>
       </c>
       <c r="AX66" t="n">
-        <v>649</v>
+        <v>-2715</v>
       </c>
       <c r="AY66" t="n">
         <v>0</v>
@@ -14941,7 +14809,7 @@
         <v>0</v>
       </c>
       <c r="BA66" t="n">
-        <v>2690</v>
+        <v>-85</v>
       </c>
       <c r="BB66" t="n">
         <v>-2</v>
@@ -15115,7 +14983,7 @@
         <v>52248</v>
       </c>
       <c r="AM67" t="n">
-        <v>-38456.992</v>
+        <v>80264</v>
       </c>
       <c r="AN67" t="n">
         <v>60977</v>
@@ -15127,7 +14995,7 @@
         <v>84652</v>
       </c>
       <c r="AQ67" t="n">
-        <v>115873.024</v>
+        <v>115873.008</v>
       </c>
       <c r="AR67" t="n">
         <v>23268</v>
@@ -15148,7 +15016,7 @@
         <v>17613</v>
       </c>
       <c r="AX67" t="n">
-        <v>41264.976</v>
+        <v>103618.976</v>
       </c>
       <c r="AY67" t="n">
         <v>-156376.992</v>
@@ -15157,7 +15025,7 @@
         <v>86662</v>
       </c>
       <c r="BA67" t="n">
-        <v>-41890</v>
+        <v>137162.992</v>
       </c>
       <c r="BB67" t="n">
         <v>58432</v>
@@ -15169,7 +15037,7 @@
         <v>77262</v>
       </c>
       <c r="BE67" t="n">
-        <v>75853.984</v>
+        <v>75853.992</v>
       </c>
       <c r="BF67" t="n">
         <v>70328</v>
@@ -15181,7 +15049,7 @@
         <v>111869</v>
       </c>
       <c r="BI67" t="n">
-        <v>102344.992</v>
+        <v>102344.984</v>
       </c>
       <c r="BJ67" t="n">
         <v>84032</v>
@@ -15193,7 +15061,7 @@
         <v>69841</v>
       </c>
       <c r="BM67" t="n">
-        <v>108755.008</v>
+        <v>108755.016</v>
       </c>
       <c r="BN67" t="n">
         <v>22555</v>
@@ -15331,7 +15199,7 @@
         <v>2331</v>
       </c>
       <c r="AM68" t="n">
-        <v>-5181</v>
+        <v>2225</v>
       </c>
       <c r="AN68" t="n">
         <v>1949</v>
@@ -15364,7 +15232,7 @@
         <v>590</v>
       </c>
       <c r="AX68" t="n">
-        <v>-2932</v>
+        <v>4129</v>
       </c>
       <c r="AY68" t="n">
         <v>598</v>
@@ -15373,7 +15241,7 @@
         <v>447</v>
       </c>
       <c r="BA68" t="n">
-        <v>-4199</v>
+        <v>598</v>
       </c>
       <c r="BB68" t="n">
         <v>-608</v>
@@ -15547,7 +15415,7 @@
         <v>2344</v>
       </c>
       <c r="AM69" t="n">
-        <v>-5327</v>
+        <v>2202</v>
       </c>
       <c r="AN69" t="n">
         <v>2039</v>
@@ -15580,7 +15448,7 @@
         <v>701</v>
       </c>
       <c r="AX69" t="n">
-        <v>-3043</v>
+        <v>4397</v>
       </c>
       <c r="AY69" t="n">
         <v>721</v>
@@ -15589,7 +15457,7 @@
         <v>580</v>
       </c>
       <c r="BA69" t="n">
-        <v>-4689</v>
+        <v>728</v>
       </c>
       <c r="BB69" t="n">
         <v>388</v>
@@ -15763,7 +15631,7 @@
         <v>-13</v>
       </c>
       <c r="AM70" t="n">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="AN70" t="n">
         <v>-90</v>
@@ -15796,7 +15664,7 @@
         <v>-111</v>
       </c>
       <c r="AX70" t="n">
-        <v>111</v>
+        <v>-268</v>
       </c>
       <c r="AY70" t="n">
         <v>-123</v>
@@ -15805,7 +15673,7 @@
         <v>-133</v>
       </c>
       <c r="BA70" t="n">
-        <v>490</v>
+        <v>-130</v>
       </c>
       <c r="BB70" t="n">
         <v>-996</v>
@@ -15979,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="AM71" t="n">
-        <v>4638</v>
+        <v>0</v>
       </c>
       <c r="AN71" t="n">
         <v>0</v>
@@ -16011,75 +15879,29 @@
       <c r="AW71" t="n">
         <v>0</v>
       </c>
-      <c r="AX71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT71" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX71" t="inlineStr"/>
+      <c r="AY71" t="inlineStr"/>
+      <c r="AZ71" t="inlineStr"/>
+      <c r="BA71" t="inlineStr"/>
+      <c r="BB71" t="inlineStr"/>
+      <c r="BC71" t="inlineStr"/>
+      <c r="BD71" t="inlineStr"/>
+      <c r="BE71" t="inlineStr"/>
+      <c r="BF71" t="inlineStr"/>
+      <c r="BG71" t="inlineStr"/>
+      <c r="BH71" t="inlineStr"/>
+      <c r="BI71" t="inlineStr"/>
+      <c r="BJ71" t="inlineStr"/>
+      <c r="BK71" t="inlineStr"/>
+      <c r="BL71" t="inlineStr"/>
+      <c r="BM71" t="inlineStr"/>
+      <c r="BN71" t="inlineStr"/>
+      <c r="BO71" t="inlineStr"/>
+      <c r="BP71" t="inlineStr"/>
+      <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
+      <c r="BS71" t="inlineStr"/>
+      <c r="BT71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16227,75 +16049,29 @@
       <c r="AW72" t="n">
         <v>0</v>
       </c>
-      <c r="AX72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT72" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX72" t="inlineStr"/>
+      <c r="AY72" t="inlineStr"/>
+      <c r="AZ72" t="inlineStr"/>
+      <c r="BA72" t="inlineStr"/>
+      <c r="BB72" t="inlineStr"/>
+      <c r="BC72" t="inlineStr"/>
+      <c r="BD72" t="inlineStr"/>
+      <c r="BE72" t="inlineStr"/>
+      <c r="BF72" t="inlineStr"/>
+      <c r="BG72" t="inlineStr"/>
+      <c r="BH72" t="inlineStr"/>
+      <c r="BI72" t="inlineStr"/>
+      <c r="BJ72" t="inlineStr"/>
+      <c r="BK72" t="inlineStr"/>
+      <c r="BL72" t="inlineStr"/>
+      <c r="BM72" t="inlineStr"/>
+      <c r="BN72" t="inlineStr"/>
+      <c r="BO72" t="inlineStr"/>
+      <c r="BP72" t="inlineStr"/>
+      <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
+      <c r="BS72" t="inlineStr"/>
+      <c r="BT72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16411,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="AM73" t="n">
-        <v>4638</v>
+        <v>0</v>
       </c>
       <c r="AN73" t="n">
         <v>0</v>
@@ -16443,75 +16219,29 @@
       <c r="AW73" t="n">
         <v>0</v>
       </c>
-      <c r="AX73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT73" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX73" t="inlineStr"/>
+      <c r="AY73" t="inlineStr"/>
+      <c r="AZ73" t="inlineStr"/>
+      <c r="BA73" t="inlineStr"/>
+      <c r="BB73" t="inlineStr"/>
+      <c r="BC73" t="inlineStr"/>
+      <c r="BD73" t="inlineStr"/>
+      <c r="BE73" t="inlineStr"/>
+      <c r="BF73" t="inlineStr"/>
+      <c r="BG73" t="inlineStr"/>
+      <c r="BH73" t="inlineStr"/>
+      <c r="BI73" t="inlineStr"/>
+      <c r="BJ73" t="inlineStr"/>
+      <c r="BK73" t="inlineStr"/>
+      <c r="BL73" t="inlineStr"/>
+      <c r="BM73" t="inlineStr"/>
+      <c r="BN73" t="inlineStr"/>
+      <c r="BO73" t="inlineStr"/>
+      <c r="BP73" t="inlineStr"/>
+      <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
+      <c r="BS73" t="inlineStr"/>
+      <c r="BT73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16627,7 +16357,7 @@
         <v>54409</v>
       </c>
       <c r="AM74" t="n">
-        <v>-39237.984</v>
+        <v>79000</v>
       </c>
       <c r="AN74" t="n">
         <v>62698</v>
@@ -16639,7 +16369,7 @@
         <v>87092</v>
       </c>
       <c r="AQ74" t="n">
-        <v>115659.984</v>
+        <v>115659.992</v>
       </c>
       <c r="AR74" t="n">
         <v>25216</v>
@@ -16660,7 +16390,7 @@
         <v>18048</v>
       </c>
       <c r="AX74" t="n">
-        <v>39904.992</v>
+        <v>105571.008</v>
       </c>
       <c r="AY74" t="n">
         <v>-156168.992</v>
@@ -16669,7 +16399,7 @@
         <v>86917</v>
       </c>
       <c r="BA74" t="n">
-        <v>-43506</v>
+        <v>137655.008</v>
       </c>
       <c r="BB74" t="n">
         <v>57445</v>
@@ -16681,7 +16411,7 @@
         <v>77372</v>
       </c>
       <c r="BE74" t="n">
-        <v>74603.008</v>
+        <v>74602.992</v>
       </c>
       <c r="BF74" t="n">
         <v>70273</v>
@@ -16843,7 +16573,7 @@
         <v>-698</v>
       </c>
       <c r="AM75" t="n">
-        <v>1757</v>
+        <v>-5836</v>
       </c>
       <c r="AN75" t="n">
         <v>-541</v>
@@ -16876,7 +16606,7 @@
         <v>-124</v>
       </c>
       <c r="AX75" t="n">
-        <v>1338</v>
+        <v>209</v>
       </c>
       <c r="AY75" t="n">
         <v>-60</v>
@@ -16885,7 +16615,7 @@
         <v>-86</v>
       </c>
       <c r="BA75" t="n">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="BB75" t="n">
         <v>0</v>
@@ -17092,7 +16822,7 @@
         <v>-12</v>
       </c>
       <c r="AX76" t="n">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="AY76" t="n">
         <v>-6</v>
@@ -17101,7 +16831,7 @@
         <v>-8</v>
       </c>
       <c r="BA76" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BB76" t="n">
         <v>0</v>
@@ -17307,75 +17037,29 @@
       <c r="AW77" t="n">
         <v>0</v>
       </c>
-      <c r="AX77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT77" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX77" t="inlineStr"/>
+      <c r="AY77" t="inlineStr"/>
+      <c r="AZ77" t="inlineStr"/>
+      <c r="BA77" t="inlineStr"/>
+      <c r="BB77" t="inlineStr"/>
+      <c r="BC77" t="inlineStr"/>
+      <c r="BD77" t="inlineStr"/>
+      <c r="BE77" t="inlineStr"/>
+      <c r="BF77" t="inlineStr"/>
+      <c r="BG77" t="inlineStr"/>
+      <c r="BH77" t="inlineStr"/>
+      <c r="BI77" t="inlineStr"/>
+      <c r="BJ77" t="inlineStr"/>
+      <c r="BK77" t="inlineStr"/>
+      <c r="BL77" t="inlineStr"/>
+      <c r="BM77" t="inlineStr"/>
+      <c r="BN77" t="inlineStr"/>
+      <c r="BO77" t="inlineStr"/>
+      <c r="BP77" t="inlineStr"/>
+      <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
+      <c r="BS77" t="inlineStr"/>
+      <c r="BT77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17523,75 +17207,29 @@
       <c r="AW78" t="n">
         <v>0</v>
       </c>
-      <c r="AX78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT78" t="n">
-        <v>0</v>
-      </c>
+      <c r="AX78" t="inlineStr"/>
+      <c r="AY78" t="inlineStr"/>
+      <c r="AZ78" t="inlineStr"/>
+      <c r="BA78" t="inlineStr"/>
+      <c r="BB78" t="inlineStr"/>
+      <c r="BC78" t="inlineStr"/>
+      <c r="BD78" t="inlineStr"/>
+      <c r="BE78" t="inlineStr"/>
+      <c r="BF78" t="inlineStr"/>
+      <c r="BG78" t="inlineStr"/>
+      <c r="BH78" t="inlineStr"/>
+      <c r="BI78" t="inlineStr"/>
+      <c r="BJ78" t="inlineStr"/>
+      <c r="BK78" t="inlineStr"/>
+      <c r="BL78" t="inlineStr"/>
+      <c r="BM78" t="inlineStr"/>
+      <c r="BN78" t="inlineStr"/>
+      <c r="BO78" t="inlineStr"/>
+      <c r="BP78" t="inlineStr"/>
+      <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
+      <c r="BS78" t="inlineStr"/>
+      <c r="BT78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17628,132 +17266,48 @@
       <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
-      <c r="AE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT79" t="n">
-        <v>0</v>
-      </c>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
+      <c r="AO79" t="inlineStr"/>
+      <c r="AP79" t="inlineStr"/>
+      <c r="AQ79" t="inlineStr"/>
+      <c r="AR79" t="inlineStr"/>
+      <c r="AS79" t="inlineStr"/>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AU79" t="inlineStr"/>
+      <c r="AV79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr"/>
+      <c r="AX79" t="inlineStr"/>
+      <c r="AY79" t="inlineStr"/>
+      <c r="AZ79" t="inlineStr"/>
+      <c r="BA79" t="inlineStr"/>
+      <c r="BB79" t="inlineStr"/>
+      <c r="BC79" t="inlineStr"/>
+      <c r="BD79" t="inlineStr"/>
+      <c r="BE79" t="inlineStr"/>
+      <c r="BF79" t="inlineStr"/>
+      <c r="BG79" t="inlineStr"/>
+      <c r="BH79" t="inlineStr"/>
+      <c r="BI79" t="inlineStr"/>
+      <c r="BJ79" t="inlineStr"/>
+      <c r="BK79" t="inlineStr"/>
+      <c r="BL79" t="inlineStr"/>
+      <c r="BM79" t="inlineStr"/>
+      <c r="BN79" t="inlineStr"/>
+      <c r="BO79" t="inlineStr"/>
+      <c r="BP79" t="inlineStr"/>
+      <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
+      <c r="BS79" t="inlineStr"/>
+      <c r="BT79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17869,7 +17423,7 @@
         <v>57409</v>
       </c>
       <c r="AM80" t="n">
-        <v>-41179.008</v>
+        <v>69465.984</v>
       </c>
       <c r="AN80" t="n">
         <v>62113</v>
@@ -17881,7 +17435,7 @@
         <v>86262</v>
       </c>
       <c r="AQ80" t="n">
-        <v>114503.008</v>
+        <v>114503</v>
       </c>
       <c r="AR80" t="n">
         <v>24553</v>
@@ -17902,7 +17456,7 @@
         <v>17912</v>
       </c>
       <c r="AX80" t="n">
-        <v>30519.008</v>
+        <v>94947.008</v>
       </c>
       <c r="AY80" t="n">
         <v>-156235.008</v>
@@ -17911,7 +17465,7 @@
         <v>86823</v>
       </c>
       <c r="BA80" t="n">
-        <v>-33081.008</v>
+        <v>137359.008</v>
       </c>
       <c r="BB80" t="n">
         <v>57741</v>
@@ -17935,7 +17489,7 @@
         <v>112033</v>
       </c>
       <c r="BI80" t="n">
-        <v>102500</v>
+        <v>102499.992</v>
       </c>
       <c r="BJ80" t="n">
         <v>84029</v>
@@ -17947,7 +17501,7 @@
         <v>69987</v>
       </c>
       <c r="BM80" t="n">
-        <v>109047.008</v>
+        <v>109047</v>
       </c>
       <c r="BN80" t="n">
         <v>22741</v>
